--- a/ER図.xlsx
+++ b/ER図.xlsx
@@ -461,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -493,6 +493,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,58 +617,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1821,15 +1823,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>26757</xdr:colOff>
+      <xdr:colOff>26756</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>278259</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>155182</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228847</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>148442</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1838,8 +1840,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3290942" y="5179888"/>
-          <a:ext cx="1230759" cy="642134"/>
+          <a:off x="4702665" y="6989123"/>
+          <a:ext cx="1760727" cy="1917371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1932,19 +1934,24 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>AvailableTime</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　</a:t>
+            <a:t>ITAvailableTime</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ElectronicAvailableTime</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -1962,9 +1969,126 @@
             </a:rPr>
             <a:t>　</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GameAvailableTime</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CGAvailableTime</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AirlineAvailableTime</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AirportAvailableTime</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PilotAvailableTime</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
             <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AviationAvailableTime</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -2492,8 +2616,8 @@
       <xdr:rowOff>32106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>301144</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>231194</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>149831</xdr:rowOff>
     </xdr:to>
@@ -2504,8 +2628,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3285591" y="4885576"/>
-          <a:ext cx="1258995" cy="283609"/>
+          <a:off x="4697315" y="6699606"/>
+          <a:ext cx="1768424" cy="278537"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4094,10 +4218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ50"/>
+  <dimension ref="A1:AQ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="77" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="77" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4106,13 +4230,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4153,11 +4277,11 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4191,26 +4315,26 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
-      <c r="AI2" s="33" t="s">
+      <c r="AI2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="34">
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="58">
         <v>43636</v>
       </c>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
         <v>9</v>
@@ -4244,26 +4368,26 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
-      <c r="AI3" s="33" t="s">
+      <c r="AI3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33" t="s">
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="33"/>
-      <c r="AQ3" s="33"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -4293,24 +4417,24 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
-      <c r="AI4" s="33" t="s">
+      <c r="AI4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="33"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -4340,24 +4464,24 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
-      <c r="AI5" s="33" t="s">
+      <c r="AI5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4368,11 +4492,11 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="37"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -4402,9 +4526,9 @@
       <c r="AQ6" s="3"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>19</v>
@@ -4417,9 +4541,9 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="16"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -4449,9 +4573,9 @@
       <c r="AQ7" s="8"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -4462,9 +4586,9 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="19"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -4539,1865 +4663,2135 @@
       <c r="AQ9" s="10"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="23"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="46"/>
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="46"/>
+      <c r="AO10" s="46"/>
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="47"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="36"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="12"/>
     </row>
     <row r="12" spans="1:43" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="37" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="37"/>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="37"/>
-      <c r="AQ12" s="39"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="15"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="39"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="15"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="37"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="39"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="15"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="39"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="15"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="37"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37"/>
-      <c r="AQ16" s="39"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="15"/>
     </row>
     <row r="17" spans="1:43" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="37"/>
-      <c r="AN17" s="37"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="39"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="15"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="39"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="15"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="37"/>
-      <c r="AM19" s="37"/>
-      <c r="AN19" s="37"/>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="37"/>
-      <c r="AQ19" s="39"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="15"/>
     </row>
     <row r="20" spans="1:43" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="39"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="15"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="37"/>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="39"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="15"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="37"/>
-      <c r="AM22" s="37"/>
-      <c r="AN22" s="37"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="37"/>
-      <c r="AQ22" s="39"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="15"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="37"/>
-      <c r="AM23" s="37"/>
-      <c r="AN23" s="37"/>
-      <c r="AO23" s="37"/>
-      <c r="AP23" s="37"/>
-      <c r="AQ23" s="39"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="15"/>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
-      <c r="AI24" s="37"/>
-      <c r="AJ24" s="37"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="37"/>
-      <c r="AM24" s="37"/>
-      <c r="AN24" s="37"/>
-      <c r="AO24" s="37"/>
-      <c r="AP24" s="37"/>
-      <c r="AQ24" s="39"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="15"/>
     </row>
     <row r="25" spans="1:43" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="37"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="37"/>
-      <c r="AM25" s="37"/>
-      <c r="AN25" s="37"/>
-      <c r="AO25" s="37"/>
-      <c r="AP25" s="37"/>
-      <c r="AQ25" s="39"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="13"/>
+      <c r="AM25" s="13"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="13"/>
+      <c r="AQ25" s="15"/>
     </row>
     <row r="26" spans="1:43" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="37"/>
-      <c r="AN26" s="37"/>
-      <c r="AO26" s="37"/>
-      <c r="AP26" s="37"/>
-      <c r="AQ26" s="39"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="15"/>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="40"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="42"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="37"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="37"/>
-      <c r="AM27" s="37"/>
-      <c r="AN27" s="37"/>
-      <c r="AO27" s="37"/>
-      <c r="AP27" s="37"/>
-      <c r="AQ27" s="39"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="15"/>
     </row>
     <row r="28" spans="1:43" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="43"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="37"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="37"/>
-      <c r="AQ28" s="39"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="13"/>
+      <c r="AQ28" s="15"/>
     </row>
     <row r="29" spans="1:43" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="52"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="38"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="47"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="37"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="37"/>
-      <c r="AQ29" s="39"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="13"/>
+      <c r="AQ29" s="15"/>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="37"/>
-      <c r="AF30" s="37"/>
-      <c r="AG30" s="37"/>
-      <c r="AH30" s="37"/>
-      <c r="AI30" s="37"/>
-      <c r="AJ30" s="37"/>
-      <c r="AK30" s="37"/>
-      <c r="AL30" s="37"/>
-      <c r="AM30" s="37"/>
-      <c r="AN30" s="37"/>
-      <c r="AO30" s="37"/>
-      <c r="AP30" s="37"/>
-      <c r="AQ30" s="39"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="15"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="38"/>
-      <c r="AG31" s="38"/>
-      <c r="AH31" s="38"/>
-      <c r="AI31" s="38"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="37"/>
-      <c r="AO31" s="37"/>
-      <c r="AP31" s="37"/>
-      <c r="AQ31" s="39"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="13"/>
+      <c r="AM31" s="13"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="13"/>
+      <c r="AQ31" s="15"/>
     </row>
     <row r="32" spans="1:43" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="37"/>
-      <c r="AF32" s="37" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AG32" s="37"/>
-      <c r="AH32" s="37"/>
-      <c r="AI32" s="37"/>
-      <c r="AJ32" s="37"/>
-      <c r="AK32" s="37"/>
-      <c r="AL32" s="37"/>
-      <c r="AM32" s="37"/>
-      <c r="AN32" s="37"/>
-      <c r="AO32" s="37"/>
-      <c r="AP32" s="37"/>
-      <c r="AQ32" s="39"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="13"/>
+      <c r="AQ32" s="15"/>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="38"/>
-      <c r="AE33" s="37"/>
-      <c r="AF33" s="40"/>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="42"/>
-      <c r="AI33" s="37"/>
-      <c r="AJ33" s="37"/>
-      <c r="AK33" s="37"/>
-      <c r="AL33" s="37"/>
-      <c r="AM33" s="37"/>
-      <c r="AN33" s="37"/>
-      <c r="AO33" s="37"/>
-      <c r="AP33" s="37"/>
-      <c r="AQ33" s="39"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="18"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="13"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="13"/>
+      <c r="AQ33" s="15"/>
     </row>
     <row r="34" spans="1:43" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="52"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="38"/>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="43"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="44"/>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="37"/>
-      <c r="AM34" s="37"/>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="37"/>
-      <c r="AP34" s="37"/>
-      <c r="AQ34" s="39"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="13"/>
+      <c r="AM34" s="13"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="13"/>
+      <c r="AQ34" s="15"/>
     </row>
     <row r="35" spans="1:43" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="38"/>
-      <c r="AE35" s="37"/>
-      <c r="AF35" s="45"/>
-      <c r="AG35" s="46"/>
-      <c r="AH35" s="47"/>
-      <c r="AI35" s="37"/>
-      <c r="AJ35" s="37"/>
-      <c r="AK35" s="37"/>
-      <c r="AL35" s="37"/>
-      <c r="AM35" s="37"/>
-      <c r="AN35" s="37"/>
-      <c r="AO35" s="37"/>
-      <c r="AP35" s="37"/>
-      <c r="AQ35" s="39"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="21"/>
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="13"/>
+      <c r="AQ35" s="15"/>
     </row>
     <row r="36" spans="1:43" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="52"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="58"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="37"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="38"/>
-      <c r="AE36" s="38"/>
-      <c r="AF36" s="38"/>
-      <c r="AG36" s="38"/>
-      <c r="AH36" s="38"/>
-      <c r="AI36" s="38"/>
-      <c r="AJ36" s="37"/>
-      <c r="AK36" s="37"/>
-      <c r="AL36" s="37"/>
-      <c r="AM36" s="37"/>
-      <c r="AN36" s="37"/>
-      <c r="AO36" s="37"/>
-      <c r="AP36" s="37"/>
-      <c r="AQ36" s="39"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="13"/>
+      <c r="AM36" s="13"/>
+      <c r="AN36" s="13"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="13"/>
+      <c r="AQ36" s="15"/>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="38"/>
-      <c r="AE37" s="38"/>
-      <c r="AF37" s="38"/>
-      <c r="AG37" s="38"/>
-      <c r="AH37" s="38"/>
-      <c r="AI37" s="38"/>
-      <c r="AJ37" s="37"/>
-      <c r="AK37" s="37"/>
-      <c r="AL37" s="37"/>
-      <c r="AM37" s="37"/>
-      <c r="AN37" s="37"/>
-      <c r="AO37" s="37"/>
-      <c r="AP37" s="37"/>
-      <c r="AQ37" s="39"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="13"/>
+      <c r="AK37" s="13"/>
+      <c r="AL37" s="13"/>
+      <c r="AM37" s="13"/>
+      <c r="AN37" s="13"/>
+      <c r="AO37" s="13"/>
+      <c r="AP37" s="13"/>
+      <c r="AQ37" s="15"/>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="38"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="38"/>
-      <c r="AD38" s="38"/>
-      <c r="AE38" s="38"/>
-      <c r="AF38" s="37"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="37"/>
-      <c r="AI38" s="37"/>
-      <c r="AJ38" s="37"/>
-      <c r="AK38" s="37"/>
-      <c r="AL38" s="37"/>
-      <c r="AM38" s="37"/>
-      <c r="AN38" s="37"/>
-      <c r="AO38" s="37"/>
-      <c r="AP38" s="37"/>
-      <c r="AQ38" s="39"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="13"/>
+      <c r="AM38" s="13"/>
+      <c r="AN38" s="13"/>
+      <c r="AO38" s="13"/>
+      <c r="AP38" s="13"/>
+      <c r="AQ38" s="15"/>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="37"/>
-      <c r="AC39" s="37"/>
-      <c r="AD39" s="37"/>
-      <c r="AE39" s="37"/>
-      <c r="AF39" s="37"/>
-      <c r="AG39" s="37"/>
-      <c r="AH39" s="37"/>
-      <c r="AI39" s="37"/>
-      <c r="AJ39" s="37"/>
-      <c r="AK39" s="37"/>
-      <c r="AL39" s="37"/>
-      <c r="AM39" s="37"/>
-      <c r="AN39" s="37"/>
-      <c r="AO39" s="37"/>
-      <c r="AP39" s="37"/>
-      <c r="AQ39" s="39"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="13"/>
+      <c r="AQ39" s="15"/>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="38"/>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="38"/>
-      <c r="AH40" s="38"/>
-      <c r="AI40" s="38"/>
-      <c r="AJ40" s="38"/>
-      <c r="AK40" s="38"/>
-      <c r="AL40" s="38"/>
-      <c r="AM40" s="38"/>
-      <c r="AN40" s="38"/>
-      <c r="AO40" s="38"/>
-      <c r="AP40" s="38"/>
-      <c r="AQ40" s="48"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="14"/>
+      <c r="AK40" s="14"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="14"/>
+      <c r="AN40" s="14"/>
+      <c r="AO40" s="14"/>
+      <c r="AP40" s="14"/>
+      <c r="AQ40" s="24"/>
     </row>
     <row r="41" spans="1:43" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="38"/>
-      <c r="AA41" s="38"/>
-      <c r="AB41" s="38"/>
-      <c r="AC41" s="38"/>
-      <c r="AD41" s="38"/>
-      <c r="AE41" s="38"/>
-      <c r="AF41" s="38"/>
-      <c r="AG41" s="38"/>
-      <c r="AH41" s="38"/>
-      <c r="AI41" s="38"/>
-      <c r="AJ41" s="38"/>
-      <c r="AK41" s="38"/>
-      <c r="AL41" s="38"/>
-      <c r="AM41" s="38"/>
-      <c r="AN41" s="38"/>
-      <c r="AO41" s="38"/>
-      <c r="AP41" s="38"/>
-      <c r="AQ41" s="48"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="14"/>
+      <c r="AK41" s="14"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="14"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="14"/>
+      <c r="AP41" s="14"/>
+      <c r="AQ41" s="24"/>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="38"/>
-      <c r="AB42" s="38"/>
-      <c r="AC42" s="38"/>
-      <c r="AD42" s="38"/>
-      <c r="AE42" s="38"/>
-      <c r="AF42" s="38"/>
-      <c r="AG42" s="38"/>
-      <c r="AH42" s="38"/>
-      <c r="AI42" s="38"/>
-      <c r="AJ42" s="38"/>
-      <c r="AK42" s="38"/>
-      <c r="AL42" s="38"/>
-      <c r="AM42" s="38"/>
-      <c r="AN42" s="38"/>
-      <c r="AO42" s="38"/>
-      <c r="AP42" s="38"/>
-      <c r="AQ42" s="48"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="14"/>
+      <c r="AJ42" s="14"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="14"/>
+      <c r="AM42" s="14"/>
+      <c r="AN42" s="14"/>
+      <c r="AO42" s="14"/>
+      <c r="AP42" s="14"/>
+      <c r="AQ42" s="24"/>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
-      <c r="AA43" s="38"/>
-      <c r="AB43" s="38"/>
-      <c r="AC43" s="38"/>
-      <c r="AD43" s="38"/>
-      <c r="AE43" s="38"/>
-      <c r="AF43" s="38"/>
-      <c r="AG43" s="38"/>
-      <c r="AH43" s="38"/>
-      <c r="AI43" s="38"/>
-      <c r="AJ43" s="38"/>
-      <c r="AK43" s="38"/>
-      <c r="AL43" s="38"/>
-      <c r="AM43" s="38"/>
-      <c r="AN43" s="38"/>
-      <c r="AO43" s="38"/>
-      <c r="AP43" s="38"/>
-      <c r="AQ43" s="48"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="14"/>
+      <c r="AI43" s="14"/>
+      <c r="AJ43" s="14"/>
+      <c r="AK43" s="14"/>
+      <c r="AL43" s="14"/>
+      <c r="AM43" s="14"/>
+      <c r="AN43" s="14"/>
+      <c r="AO43" s="14"/>
+      <c r="AP43" s="14"/>
+      <c r="AQ43" s="24"/>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="38"/>
-      <c r="AB44" s="38"/>
-      <c r="AC44" s="38"/>
-      <c r="AD44" s="38"/>
-      <c r="AE44" s="38"/>
-      <c r="AF44" s="38"/>
-      <c r="AG44" s="38"/>
-      <c r="AH44" s="38"/>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="38"/>
-      <c r="AK44" s="38"/>
-      <c r="AL44" s="38"/>
-      <c r="AM44" s="38"/>
-      <c r="AN44" s="38"/>
-      <c r="AO44" s="38"/>
-      <c r="AP44" s="38"/>
-      <c r="AQ44" s="48"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="14"/>
+      <c r="AG44" s="14"/>
+      <c r="AH44" s="14"/>
+      <c r="AI44" s="14"/>
+      <c r="AJ44" s="14"/>
+      <c r="AK44" s="14"/>
+      <c r="AL44" s="14"/>
+      <c r="AM44" s="14"/>
+      <c r="AN44" s="14"/>
+      <c r="AO44" s="14"/>
+      <c r="AP44" s="14"/>
+      <c r="AQ44" s="24"/>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
-      <c r="AA45" s="38"/>
-      <c r="AB45" s="38"/>
-      <c r="AC45" s="38"/>
-      <c r="AD45" s="38"/>
-      <c r="AE45" s="38"/>
-      <c r="AF45" s="38"/>
-      <c r="AG45" s="38"/>
-      <c r="AH45" s="38"/>
-      <c r="AI45" s="38"/>
-      <c r="AJ45" s="38"/>
-      <c r="AK45" s="38"/>
-      <c r="AL45" s="38"/>
-      <c r="AM45" s="38"/>
-      <c r="AN45" s="38"/>
-      <c r="AO45" s="38"/>
-      <c r="AP45" s="38"/>
-      <c r="AQ45" s="48"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="14"/>
+      <c r="AJ45" s="14"/>
+      <c r="AK45" s="14"/>
+      <c r="AL45" s="14"/>
+      <c r="AM45" s="14"/>
+      <c r="AN45" s="14"/>
+      <c r="AO45" s="14"/>
+      <c r="AP45" s="14"/>
+      <c r="AQ45" s="24"/>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="38"/>
-      <c r="Z46" s="38"/>
-      <c r="AA46" s="38"/>
-      <c r="AB46" s="38"/>
-      <c r="AC46" s="38"/>
-      <c r="AD46" s="38"/>
-      <c r="AE46" s="38"/>
-      <c r="AF46" s="38"/>
-      <c r="AG46" s="38"/>
-      <c r="AH46" s="38"/>
-      <c r="AI46" s="38"/>
-      <c r="AJ46" s="38"/>
-      <c r="AK46" s="38"/>
-      <c r="AL46" s="38"/>
-      <c r="AM46" s="38"/>
-      <c r="AN46" s="38"/>
-      <c r="AO46" s="38"/>
-      <c r="AP46" s="38"/>
-      <c r="AQ46" s="48"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="14"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="14"/>
+      <c r="AM46" s="14"/>
+      <c r="AN46" s="14"/>
+      <c r="AO46" s="14"/>
+      <c r="AP46" s="14"/>
+      <c r="AQ46" s="24"/>
     </row>
-    <row r="47" spans="1:43" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="46"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38"/>
-      <c r="AA47" s="38"/>
-      <c r="AB47" s="38"/>
-      <c r="AC47" s="38"/>
-      <c r="AD47" s="38"/>
-      <c r="AE47" s="38"/>
-      <c r="AF47" s="38"/>
-      <c r="AG47" s="38"/>
-      <c r="AH47" s="38"/>
-      <c r="AI47" s="38"/>
-      <c r="AJ47" s="38"/>
-      <c r="AK47" s="38"/>
-      <c r="AL47" s="38"/>
-      <c r="AM47" s="38"/>
-      <c r="AN47" s="38"/>
-      <c r="AO47" s="38"/>
-      <c r="AP47" s="38"/>
-      <c r="AQ47" s="48"/>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="14"/>
+      <c r="AF47" s="14"/>
+      <c r="AG47" s="14"/>
+      <c r="AH47" s="14"/>
+      <c r="AI47" s="14"/>
+      <c r="AJ47" s="14"/>
+      <c r="AK47" s="14"/>
+      <c r="AL47" s="14"/>
+      <c r="AM47" s="14"/>
+      <c r="AN47" s="14"/>
+      <c r="AO47" s="14"/>
+      <c r="AP47" s="14"/>
+      <c r="AQ47" s="24"/>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="38"/>
-      <c r="AB48" s="38"/>
-      <c r="AC48" s="38"/>
-      <c r="AD48" s="38"/>
-      <c r="AE48" s="38"/>
-      <c r="AF48" s="38"/>
-      <c r="AG48" s="38"/>
-      <c r="AH48" s="38"/>
-      <c r="AI48" s="38"/>
-      <c r="AJ48" s="38"/>
-      <c r="AK48" s="38"/>
-      <c r="AL48" s="38"/>
-      <c r="AM48" s="38"/>
-      <c r="AN48" s="38"/>
-      <c r="AO48" s="38"/>
-      <c r="AP48" s="38"/>
-      <c r="AQ48" s="48"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="14"/>
+      <c r="AG48" s="14"/>
+      <c r="AH48" s="14"/>
+      <c r="AI48" s="14"/>
+      <c r="AJ48" s="14"/>
+      <c r="AK48" s="14"/>
+      <c r="AL48" s="14"/>
+      <c r="AM48" s="14"/>
+      <c r="AN48" s="14"/>
+      <c r="AO48" s="14"/>
+      <c r="AP48" s="14"/>
+      <c r="AQ48" s="24"/>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="38"/>
-      <c r="AA49" s="38"/>
-      <c r="AB49" s="38"/>
-      <c r="AC49" s="38"/>
-      <c r="AD49" s="38"/>
-      <c r="AE49" s="38"/>
-      <c r="AF49" s="38"/>
-      <c r="AG49" s="38"/>
-      <c r="AH49" s="38"/>
-      <c r="AI49" s="38"/>
-      <c r="AJ49" s="38"/>
-      <c r="AK49" s="38"/>
-      <c r="AL49" s="38"/>
-      <c r="AM49" s="38"/>
-      <c r="AN49" s="38"/>
-      <c r="AO49" s="38"/>
-      <c r="AP49" s="38"/>
-      <c r="AQ49" s="48"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="31"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
+      <c r="AD49" s="14"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="14"/>
+      <c r="AG49" s="14"/>
+      <c r="AH49" s="14"/>
+      <c r="AI49" s="14"/>
+      <c r="AJ49" s="14"/>
+      <c r="AK49" s="14"/>
+      <c r="AL49" s="14"/>
+      <c r="AM49" s="14"/>
+      <c r="AN49" s="14"/>
+      <c r="AO49" s="14"/>
+      <c r="AP49" s="14"/>
+      <c r="AQ49" s="24"/>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="49"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="49"/>
-      <c r="U50" s="49"/>
-      <c r="V50" s="49"/>
-      <c r="W50" s="49"/>
-      <c r="X50" s="49"/>
-      <c r="Y50" s="49"/>
-      <c r="Z50" s="49"/>
-      <c r="AA50" s="49"/>
-      <c r="AB50" s="49"/>
-      <c r="AC50" s="49"/>
-      <c r="AD50" s="49"/>
-      <c r="AE50" s="49"/>
-      <c r="AF50" s="49"/>
-      <c r="AG50" s="49"/>
-      <c r="AH50" s="49"/>
-      <c r="AI50" s="49"/>
-      <c r="AJ50" s="49"/>
-      <c r="AK50" s="49"/>
-      <c r="AL50" s="49"/>
-      <c r="AM50" s="49"/>
-      <c r="AN50" s="49"/>
-      <c r="AO50" s="49"/>
-      <c r="AP50" s="49"/>
-      <c r="AQ50" s="50"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="31"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="31"/>
+      <c r="AA50" s="31"/>
+      <c r="AB50" s="31"/>
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="31"/>
+      <c r="AE50" s="31"/>
+      <c r="AF50" s="31"/>
+      <c r="AG50" s="31"/>
+      <c r="AH50" s="31"/>
+      <c r="AI50" s="31"/>
+      <c r="AJ50" s="31"/>
+      <c r="AK50" s="31"/>
+      <c r="AL50" s="31"/>
+      <c r="AM50" s="31"/>
+      <c r="AN50" s="31"/>
+      <c r="AO50" s="31"/>
+      <c r="AP50" s="31"/>
+      <c r="AQ50" s="24"/>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="31"/>
+      <c r="X51" s="31"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="31"/>
+      <c r="AA51" s="31"/>
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="31"/>
+      <c r="AE51" s="31"/>
+      <c r="AF51" s="31"/>
+      <c r="AG51" s="31"/>
+      <c r="AH51" s="31"/>
+      <c r="AI51" s="31"/>
+      <c r="AJ51" s="31"/>
+      <c r="AK51" s="31"/>
+      <c r="AL51" s="31"/>
+      <c r="AM51" s="31"/>
+      <c r="AN51" s="31"/>
+      <c r="AO51" s="31"/>
+      <c r="AP51" s="31"/>
+      <c r="AQ51" s="24"/>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="31"/>
+      <c r="V52" s="31"/>
+      <c r="W52" s="31"/>
+      <c r="X52" s="31"/>
+      <c r="Y52" s="32"/>
+      <c r="Z52" s="31"/>
+      <c r="AA52" s="31"/>
+      <c r="AB52" s="31"/>
+      <c r="AC52" s="31"/>
+      <c r="AD52" s="31"/>
+      <c r="AE52" s="31"/>
+      <c r="AF52" s="31"/>
+      <c r="AG52" s="31"/>
+      <c r="AH52" s="31"/>
+      <c r="AI52" s="31"/>
+      <c r="AJ52" s="31"/>
+      <c r="AK52" s="31"/>
+      <c r="AL52" s="31"/>
+      <c r="AM52" s="31"/>
+      <c r="AN52" s="31"/>
+      <c r="AO52" s="31"/>
+      <c r="AP52" s="31"/>
+      <c r="AQ52" s="24"/>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="31"/>
+      <c r="V53" s="31"/>
+      <c r="W53" s="31"/>
+      <c r="X53" s="31"/>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="31"/>
+      <c r="AA53" s="31"/>
+      <c r="AB53" s="31"/>
+      <c r="AC53" s="31"/>
+      <c r="AD53" s="31"/>
+      <c r="AE53" s="31"/>
+      <c r="AF53" s="31"/>
+      <c r="AG53" s="31"/>
+      <c r="AH53" s="31"/>
+      <c r="AI53" s="31"/>
+      <c r="AJ53" s="31"/>
+      <c r="AK53" s="31"/>
+      <c r="AL53" s="31"/>
+      <c r="AM53" s="31"/>
+      <c r="AN53" s="31"/>
+      <c r="AO53" s="31"/>
+      <c r="AP53" s="31"/>
+      <c r="AQ53" s="24"/>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="31"/>
+      <c r="V54" s="31"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="31"/>
+      <c r="Y54" s="32"/>
+      <c r="Z54" s="31"/>
+      <c r="AA54" s="31"/>
+      <c r="AB54" s="31"/>
+      <c r="AC54" s="31"/>
+      <c r="AD54" s="31"/>
+      <c r="AE54" s="31"/>
+      <c r="AF54" s="31"/>
+      <c r="AG54" s="31"/>
+      <c r="AH54" s="31"/>
+      <c r="AI54" s="31"/>
+      <c r="AJ54" s="31"/>
+      <c r="AK54" s="31"/>
+      <c r="AL54" s="31"/>
+      <c r="AM54" s="31"/>
+      <c r="AN54" s="31"/>
+      <c r="AO54" s="31"/>
+      <c r="AP54" s="31"/>
+      <c r="AQ54" s="24"/>
+    </row>
+    <row r="55" spans="1:43" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="31"/>
+      <c r="AA55" s="31"/>
+      <c r="AB55" s="31"/>
+      <c r="AC55" s="31"/>
+      <c r="AD55" s="31"/>
+      <c r="AE55" s="31"/>
+      <c r="AF55" s="31"/>
+      <c r="AG55" s="31"/>
+      <c r="AH55" s="31"/>
+      <c r="AI55" s="31"/>
+      <c r="AJ55" s="31"/>
+      <c r="AK55" s="31"/>
+      <c r="AL55" s="31"/>
+      <c r="AM55" s="31"/>
+      <c r="AN55" s="31"/>
+      <c r="AO55" s="31"/>
+      <c r="AP55" s="31"/>
+      <c r="AQ55" s="24"/>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="25"/>
+      <c r="AB56" s="25"/>
+      <c r="AC56" s="25"/>
+      <c r="AD56" s="25"/>
+      <c r="AE56" s="25"/>
+      <c r="AF56" s="25"/>
+      <c r="AG56" s="25"/>
+      <c r="AH56" s="25"/>
+      <c r="AI56" s="25"/>
+      <c r="AJ56" s="25"/>
+      <c r="AK56" s="25"/>
+      <c r="AL56" s="25"/>
+      <c r="AM56" s="25"/>
+      <c r="AN56" s="25"/>
+      <c r="AO56" s="25"/>
+      <c r="AP56" s="25"/>
+      <c r="AQ56" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
